--- a/pred_ohlcv/54/2019-10-24 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 OMG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F2" t="n">
-        <v>698.25</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>854.3166666666667</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>850</v>
       </c>
       <c r="F3" t="n">
-        <v>71.7522</v>
+        <v>698.25</v>
       </c>
       <c r="G3" t="n">
-        <v>854.35</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>850</v>
       </c>
       <c r="C4" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D4" t="n">
         <v>850</v>
       </c>
       <c r="E4" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F4" t="n">
-        <v>1403.0223</v>
+        <v>71.7522</v>
       </c>
       <c r="G4" t="n">
-        <v>854.3666666666667</v>
+        <v>854.35</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>850</v>
       </c>
       <c r="C5" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D5" t="n">
         <v>850</v>
       </c>
       <c r="E5" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F5" t="n">
-        <v>516.379</v>
+        <v>1403.0223</v>
       </c>
       <c r="G5" t="n">
-        <v>854.3333333333334</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>850</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>516.379</v>
       </c>
       <c r="G6" t="n">
-        <v>854.3833333333333</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>850</v>
       </c>
       <c r="F7" t="n">
-        <v>13.8142</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>854.3666666666667</v>
+        <v>854.3833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>850</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>13.8142</v>
       </c>
       <c r="G8" t="n">
-        <v>854.35</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>850</v>
       </c>
       <c r="F9" t="n">
-        <v>239.17</v>
+        <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>854.3333333333334</v>
+        <v>854.35</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>850</v>
       </c>
       <c r="F10" t="n">
-        <v>18.1966</v>
+        <v>239.17</v>
       </c>
       <c r="G10" t="n">
-        <v>854.3166666666667</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>850</v>
       </c>
       <c r="F11" t="n">
-        <v>425.17</v>
+        <v>18.1966</v>
       </c>
       <c r="G11" t="n">
-        <v>854.2666666666667</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>850</v>
       </c>
       <c r="F12" t="n">
-        <v>127.1</v>
+        <v>425.17</v>
       </c>
       <c r="G12" t="n">
-        <v>854.2166666666667</v>
+        <v>854.2666666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>850</v>
       </c>
       <c r="F13" t="n">
-        <v>86.1875</v>
+        <v>127.1</v>
       </c>
       <c r="G13" t="n">
-        <v>854.1666666666666</v>
+        <v>854.2166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>850</v>
       </c>
       <c r="F14" t="n">
-        <v>85.6623</v>
+        <v>86.1875</v>
       </c>
       <c r="G14" t="n">
-        <v>854.1166666666667</v>
+        <v>854.1666666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F15" t="n">
-        <v>39.0447</v>
+        <v>85.6623</v>
       </c>
       <c r="G15" t="n">
-        <v>854.1</v>
+        <v>854.1166666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>852</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1802</v>
+        <v>39.0447</v>
       </c>
       <c r="G16" t="n">
-        <v>854.0833333333334</v>
+        <v>854.1</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F17" t="n">
-        <v>168.6751</v>
+        <v>1.1802</v>
       </c>
       <c r="G17" t="n">
         <v>854.0833333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F18" t="n">
-        <v>1.6714</v>
+        <v>168.6751</v>
       </c>
       <c r="G18" t="n">
-        <v>854.1</v>
+        <v>854.0833333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F19" t="n">
-        <v>1247</v>
+        <v>1.6714</v>
       </c>
       <c r="G19" t="n">
-        <v>854.0833333333334</v>
+        <v>854.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>852</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4319</v>
+        <v>1247</v>
       </c>
       <c r="G20" t="n">
-        <v>854.0666666666667</v>
+        <v>854.0833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C21" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D21" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E21" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F21" t="n">
-        <v>409.4525</v>
+        <v>0.4319</v>
       </c>
       <c r="G21" t="n">
-        <v>854</v>
+        <v>854.0666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C22" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D22" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E22" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F22" t="n">
-        <v>651.357</v>
+        <v>409.4525</v>
       </c>
       <c r="G22" t="n">
-        <v>853.9666666666667</v>
+        <v>854</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C23" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D23" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E23" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F23" t="n">
-        <v>114.5249</v>
+        <v>651.357</v>
       </c>
       <c r="G23" t="n">
-        <v>853.8833333333333</v>
+        <v>853.9666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>849</v>
       </c>
       <c r="C24" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D24" t="n">
         <v>849</v>
       </c>
       <c r="E24" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F24" t="n">
-        <v>123.54</v>
+        <v>114.5249</v>
       </c>
       <c r="G24" t="n">
-        <v>853.8166666666667</v>
+        <v>853.8833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>849</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>123.54</v>
       </c>
       <c r="G25" t="n">
-        <v>853.75</v>
+        <v>853.8166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>849</v>
       </c>
       <c r="C26" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D26" t="n">
         <v>849</v>
       </c>
       <c r="E26" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>853.6333333333333</v>
+        <v>853.75</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C27" t="n">
         <v>846</v>
       </c>
       <c r="D27" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E27" t="n">
         <v>846</v>
       </c>
       <c r="F27" t="n">
-        <v>218.6768</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="n">
-        <v>853.5166666666667</v>
+        <v>853.6333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F28" t="n">
-        <v>41.3448</v>
+        <v>218.6768</v>
       </c>
       <c r="G28" t="n">
-        <v>853.45</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F29" t="n">
-        <v>86.0414</v>
+        <v>41.3448</v>
       </c>
       <c r="G29" t="n">
-        <v>853.3666666666667</v>
+        <v>853.45</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>848</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1393</v>
+        <v>86.0414</v>
       </c>
       <c r="G30" t="n">
-        <v>853.3</v>
+        <v>853.3666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F31" t="n">
-        <v>593.9132</v>
+        <v>2.1393</v>
       </c>
       <c r="G31" t="n">
-        <v>853.2166666666667</v>
+        <v>853.3</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>847</v>
       </c>
       <c r="C32" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D32" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E32" t="n">
         <v>847</v>
       </c>
       <c r="F32" t="n">
-        <v>280.0005</v>
+        <v>593.9132</v>
       </c>
       <c r="G32" t="n">
-        <v>853.15</v>
+        <v>853.2166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C33" t="n">
         <v>848</v>
@@ -1223,15 +1321,18 @@
         <v>848</v>
       </c>
       <c r="E33" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F33" t="n">
-        <v>20.1463</v>
+        <v>280.0005</v>
       </c>
       <c r="G33" t="n">
-        <v>853.0833333333334</v>
+        <v>853.15</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F34" t="n">
-        <v>11.4707</v>
+        <v>20.1463</v>
       </c>
       <c r="G34" t="n">
-        <v>853.0333333333333</v>
+        <v>853.0833333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>849</v>
       </c>
       <c r="F35" t="n">
-        <v>8.529299999999999</v>
+        <v>11.4707</v>
       </c>
       <c r="G35" t="n">
-        <v>852.9833333333333</v>
+        <v>853.0333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>849</v>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>8.529299999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>852.9333333333333</v>
+        <v>852.9833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F37" t="n">
-        <v>85.1784</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n">
-        <v>852.9</v>
+        <v>852.9333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F38" t="n">
-        <v>288</v>
+        <v>85.1784</v>
       </c>
       <c r="G38" t="n">
-        <v>852.85</v>
+        <v>852.9</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>849</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1684</v>
+        <v>288</v>
       </c>
       <c r="G39" t="n">
-        <v>852.8</v>
+        <v>852.85</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>849</v>
       </c>
       <c r="C40" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D40" t="n">
         <v>849</v>
       </c>
       <c r="E40" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F40" t="n">
-        <v>199.9254</v>
+        <v>0.1684</v>
       </c>
       <c r="G40" t="n">
-        <v>852.7</v>
+        <v>852.8</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C41" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D41" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E41" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F41" t="n">
-        <v>168.4056</v>
+        <v>199.9254</v>
       </c>
       <c r="G41" t="n">
-        <v>852.6</v>
+        <v>852.7</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>168.4056</v>
       </c>
       <c r="G42" t="n">
-        <v>852.55</v>
+        <v>852.6</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1841</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>852.4333333333333</v>
+        <v>852.55</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F44" t="n">
-        <v>411.2726</v>
+        <v>1.1841</v>
       </c>
       <c r="G44" t="n">
-        <v>852.3333333333334</v>
+        <v>852.4333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>411.2726</v>
       </c>
       <c r="G45" t="n">
-        <v>852.2166666666667</v>
+        <v>852.3333333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F46" t="n">
-        <v>20.1088</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>852.0833333333334</v>
+        <v>852.2166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>853</v>
       </c>
       <c r="C47" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D47" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E47" t="n">
         <v>853</v>
       </c>
       <c r="F47" t="n">
-        <v>1958.7344</v>
+        <v>20.1088</v>
       </c>
       <c r="G47" t="n">
-        <v>851.9833333333333</v>
+        <v>852.0833333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C48" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D48" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E48" t="n">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>1958.7344</v>
       </c>
       <c r="G48" t="n">
-        <v>851.9666666666667</v>
+        <v>851.9833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F49" t="n">
-        <v>1166.8611</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>851.8833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F50" t="n">
-        <v>3.5</v>
+        <v>1166.8611</v>
       </c>
       <c r="G50" t="n">
-        <v>851.8333333333334</v>
+        <v>851.8833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F51" t="n">
-        <v>59.3317</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="n">
-        <v>851.8166666666667</v>
+        <v>851.8333333333334</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F52" t="n">
-        <v>39.49302325581395</v>
+        <v>59.3317</v>
       </c>
       <c r="G52" t="n">
         <v>851.8166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C53" t="n">
         <v>860</v>
@@ -1743,15 +1901,18 @@
         <v>860</v>
       </c>
       <c r="E53" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="F53" t="n">
-        <v>636.5223</v>
+        <v>39.49302325581395</v>
       </c>
       <c r="G53" t="n">
         <v>851.8166666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C54" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D54" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E54" t="n">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F54" t="n">
-        <v>19.4459</v>
+        <v>636.5223</v>
       </c>
       <c r="G54" t="n">
-        <v>851.8</v>
+        <v>851.8166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>861</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>19.4459</v>
       </c>
       <c r="G55" t="n">
-        <v>851.7166666666667</v>
+        <v>851.8</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F56" t="n">
-        <v>595.1332</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>851.65</v>
+        <v>851.7166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C57" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D57" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E57" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F57" t="n">
-        <v>601.5003</v>
+        <v>595.1332</v>
       </c>
       <c r="G57" t="n">
-        <v>851.6666666666666</v>
+        <v>851.65</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>860</v>
       </c>
       <c r="C58" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D58" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E58" t="n">
         <v>860</v>
       </c>
       <c r="F58" t="n">
-        <v>2209.3076</v>
+        <v>601.5003</v>
       </c>
       <c r="G58" t="n">
-        <v>851.7666666666667</v>
+        <v>851.6666666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C59" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D59" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E59" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F59" t="n">
-        <v>28.147</v>
+        <v>2209.3076</v>
       </c>
       <c r="G59" t="n">
-        <v>851.85</v>
+        <v>851.7666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C60" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D60" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E60" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F60" t="n">
-        <v>80.51260000000001</v>
+        <v>28.147</v>
       </c>
       <c r="G60" t="n">
-        <v>852.0166666666667</v>
+        <v>851.85</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C61" t="n">
         <v>861</v>
@@ -1951,15 +2133,18 @@
         <v>861</v>
       </c>
       <c r="E61" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F61" t="n">
-        <v>324.9</v>
+        <v>80.51260000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>852.1666666666666</v>
+        <v>852.0166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>861</v>
       </c>
       <c r="F62" t="n">
-        <v>304.4068</v>
+        <v>324.9</v>
       </c>
       <c r="G62" t="n">
-        <v>852.35</v>
+        <v>852.1666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>861</v>
       </c>
       <c r="F63" t="n">
-        <v>68.34310000000001</v>
+        <v>304.4068</v>
       </c>
       <c r="G63" t="n">
-        <v>852.5333333333333</v>
+        <v>852.35</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F64" t="n">
-        <v>2500</v>
+        <v>68.34310000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>852.75</v>
+        <v>852.5333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D65" t="n">
         <v>862</v>
       </c>
       <c r="E65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F65" t="n">
-        <v>3821.5587</v>
+        <v>2500</v>
       </c>
       <c r="G65" t="n">
-        <v>852.9333333333333</v>
+        <v>852.75</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2078,18 +2275,21 @@
         <v>861</v>
       </c>
       <c r="D66" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E66" t="n">
         <v>861</v>
       </c>
       <c r="F66" t="n">
-        <v>38.989</v>
+        <v>3821.5587</v>
       </c>
       <c r="G66" t="n">
-        <v>853.1166666666667</v>
+        <v>852.9333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F67" t="n">
-        <v>348.8372</v>
+        <v>38.989</v>
       </c>
       <c r="G67" t="n">
-        <v>853.2833333333333</v>
+        <v>853.1166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F68" t="n">
-        <v>331.0304</v>
+        <v>348.8372</v>
       </c>
       <c r="G68" t="n">
-        <v>853.4</v>
+        <v>853.2833333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>857</v>
       </c>
       <c r="F69" t="n">
-        <v>1.8029</v>
+        <v>331.0304</v>
       </c>
       <c r="G69" t="n">
-        <v>853.5166666666667</v>
+        <v>853.4</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F70" t="n">
-        <v>41.4958</v>
+        <v>1.8029</v>
       </c>
       <c r="G70" t="n">
-        <v>853.7166666666667</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F71" t="n">
-        <v>59.7192</v>
+        <v>41.4958</v>
       </c>
       <c r="G71" t="n">
-        <v>853.85</v>
+        <v>853.7166666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F72" t="n">
-        <v>32.9443</v>
+        <v>59.7192</v>
       </c>
       <c r="G72" t="n">
-        <v>853.95</v>
+        <v>853.85</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C73" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D73" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E73" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F73" t="n">
-        <v>335.2661</v>
+        <v>32.9443</v>
       </c>
       <c r="G73" t="n">
-        <v>853.9833333333333</v>
+        <v>853.95</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C74" t="n">
         <v>852</v>
       </c>
       <c r="D74" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E74" t="n">
         <v>852</v>
       </c>
       <c r="F74" t="n">
-        <v>44.9</v>
+        <v>335.2661</v>
       </c>
       <c r="G74" t="n">
-        <v>854.0166666666667</v>
+        <v>853.9833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>852</v>
       </c>
       <c r="F75" t="n">
-        <v>224.9801</v>
+        <v>44.9</v>
       </c>
       <c r="G75" t="n">
         <v>854.0166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>224.9801</v>
       </c>
       <c r="G76" t="n">
-        <v>854.0666666666667</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F77" t="n">
-        <v>109.67</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>854.0166666666667</v>
+        <v>854.0666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F78" t="n">
-        <v>131.4252</v>
+        <v>109.67</v>
       </c>
       <c r="G78" t="n">
-        <v>854.05</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F79" t="n">
-        <v>41.8965</v>
+        <v>131.4252</v>
       </c>
       <c r="G79" t="n">
-        <v>854.1</v>
+        <v>854.05</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>855</v>
       </c>
       <c r="F80" t="n">
-        <v>395.6313</v>
+        <v>41.8965</v>
       </c>
       <c r="G80" t="n">
-        <v>854.15</v>
+        <v>854.1</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>855</v>
       </c>
       <c r="F81" t="n">
-        <v>182.2685</v>
+        <v>395.6313</v>
       </c>
       <c r="G81" t="n">
-        <v>854.25</v>
+        <v>854.15</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C82" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D82" t="n">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E82" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F82" t="n">
-        <v>1085.7555</v>
+        <v>182.2685</v>
       </c>
       <c r="G82" t="n">
-        <v>854.3666666666667</v>
+        <v>854.25</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C83" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D83" t="n">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E83" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F83" t="n">
-        <v>320.8635</v>
+        <v>1085.7555</v>
       </c>
       <c r="G83" t="n">
-        <v>854.5166666666667</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F84" t="n">
-        <v>2.8081</v>
+        <v>320.8635</v>
       </c>
       <c r="G84" t="n">
-        <v>854.6166666666667</v>
+        <v>854.5166666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F85" t="n">
-        <v>920.8492</v>
+        <v>2.8081</v>
       </c>
       <c r="G85" t="n">
-        <v>854.65</v>
+        <v>854.6166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>920.8492</v>
       </c>
       <c r="G86" t="n">
-        <v>854.8</v>
+        <v>854.65</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F87" t="n">
-        <v>506.6748</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>854.9</v>
+        <v>854.8</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C88" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D88" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E88" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F88" t="n">
-        <v>451.4205</v>
+        <v>506.6748</v>
       </c>
       <c r="G88" t="n">
-        <v>854.9166666666666</v>
+        <v>854.9</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C89" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D89" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E89" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F89" t="n">
-        <v>255.1</v>
+        <v>451.4205</v>
       </c>
       <c r="G89" t="n">
-        <v>855</v>
+        <v>854.9166666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F90" t="n">
-        <v>57.3018</v>
+        <v>255.1</v>
       </c>
       <c r="G90" t="n">
-        <v>855.0666666666667</v>
+        <v>855</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C91" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D91" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E91" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F91" t="n">
-        <v>31</v>
+        <v>57.3018</v>
       </c>
       <c r="G91" t="n">
-        <v>855.1833333333333</v>
+        <v>855.0666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>853</v>
+      </c>
+      <c r="C92" t="n">
         <v>854</v>
-      </c>
-      <c r="C92" t="n">
-        <v>850</v>
       </c>
       <c r="D92" t="n">
         <v>854</v>
       </c>
       <c r="E92" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F92" t="n">
-        <v>664.8584</v>
+        <v>31</v>
       </c>
       <c r="G92" t="n">
-        <v>855.2166666666667</v>
+        <v>855.1833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C93" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D93" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E93" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F93" t="n">
-        <v>3960.5528</v>
+        <v>664.8584</v>
       </c>
       <c r="G93" t="n">
-        <v>855.1666666666666</v>
+        <v>855.2166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="C94" t="n">
         <v>845</v>
       </c>
       <c r="D94" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="E94" t="n">
         <v>845</v>
       </c>
       <c r="F94" t="n">
-        <v>114.8634</v>
+        <v>3960.5528</v>
       </c>
       <c r="G94" t="n">
-        <v>855.1</v>
+        <v>855.1666666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F95" t="n">
-        <v>441.67</v>
+        <v>114.8634</v>
       </c>
       <c r="G95" t="n">
         <v>855.1</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>849</v>
       </c>
       <c r="F96" t="n">
-        <v>46.33</v>
+        <v>441.67</v>
       </c>
       <c r="G96" t="n">
         <v>855.1</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C97" t="n">
         <v>849</v>
       </c>
       <c r="D97" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E97" t="n">
         <v>849</v>
       </c>
       <c r="F97" t="n">
-        <v>139.939</v>
+        <v>46.33</v>
       </c>
       <c r="G97" t="n">
-        <v>855.0833333333334</v>
+        <v>855.1</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C98" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D98" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E98" t="n">
         <v>849</v>
       </c>
       <c r="F98" t="n">
-        <v>218.483</v>
+        <v>139.939</v>
       </c>
       <c r="G98" t="n">
-        <v>855.1166666666667</v>
+        <v>855.0833333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E99" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F99" t="n">
-        <v>5.6846</v>
+        <v>218.483</v>
       </c>
       <c r="G99" t="n">
-        <v>855.1333333333333</v>
+        <v>855.1166666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F100" t="n">
-        <v>113.1924</v>
+        <v>5.6846</v>
       </c>
       <c r="G100" t="n">
-        <v>855.1833333333333</v>
+        <v>855.1333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C101" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D101" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E101" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F101" t="n">
-        <v>1018.1908</v>
+        <v>113.1924</v>
       </c>
       <c r="G101" t="n">
-        <v>855.15</v>
+        <v>855.1833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C102" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D102" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E102" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F102" t="n">
-        <v>202.6</v>
+        <v>1018.1908</v>
       </c>
       <c r="G102" t="n">
-        <v>855.1</v>
+        <v>855.15</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>848</v>
       </c>
       <c r="C103" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D103" t="n">
         <v>848</v>
       </c>
       <c r="E103" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F103" t="n">
-        <v>101.1844</v>
+        <v>202.6</v>
       </c>
       <c r="G103" t="n">
-        <v>855.0166666666667</v>
+        <v>855.1</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C104" t="n">
         <v>845</v>
       </c>
       <c r="D104" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E104" t="n">
         <v>845</v>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>101.1844</v>
       </c>
       <c r="G104" t="n">
-        <v>854.9166666666666</v>
+        <v>855.0166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C105" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D105" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E105" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F105" t="n">
-        <v>4.0076</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="n">
-        <v>854.8666666666667</v>
+        <v>854.9166666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C106" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D106" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E106" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F106" t="n">
-        <v>3.0094</v>
+        <v>4.0076</v>
       </c>
       <c r="G106" t="n">
-        <v>854.8166666666667</v>
+        <v>854.8666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C107" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D107" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E107" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>3.0094</v>
       </c>
       <c r="G107" t="n">
-        <v>854.7333333333333</v>
+        <v>854.8166666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C108" t="n">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D108" t="n">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E108" t="n">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="F108" t="n">
-        <v>6.8147</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>854.4833333333333</v>
+        <v>854.7333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C109" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D109" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E109" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F109" t="n">
-        <v>365.7215</v>
+        <v>6.8147</v>
       </c>
       <c r="G109" t="n">
-        <v>854.3833333333333</v>
+        <v>854.4833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C110" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D110" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E110" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F110" t="n">
-        <v>77.7732</v>
+        <v>365.7215</v>
       </c>
       <c r="G110" t="n">
-        <v>854.2833333333333</v>
+        <v>854.3833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C111" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D111" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E111" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>77.7732</v>
       </c>
       <c r="G111" t="n">
-        <v>854.1833333333333</v>
+        <v>854.2833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>853</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>854.0666666666667</v>
+        <v>854.1833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C113" t="n">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D113" t="n">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E113" t="n">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F113" t="n">
-        <v>114.4673</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>853.8833333333333</v>
+        <v>854.0666666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C114" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D114" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E114" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>114.4673</v>
       </c>
       <c r="G114" t="n">
-        <v>853.7166666666667</v>
+        <v>853.8833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C115" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D115" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E115" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F115" t="n">
-        <v>4.4272</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>853.5166666666667</v>
+        <v>853.7166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>849</v>
       </c>
       <c r="C116" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D116" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E116" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F116" t="n">
-        <v>24.6888</v>
+        <v>4.4272</v>
       </c>
       <c r="G116" t="n">
-        <v>853.3</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C117" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D117" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E117" t="n">
         <v>848</v>
       </c>
       <c r="F117" t="n">
-        <v>966.5</v>
+        <v>24.6888</v>
       </c>
       <c r="G117" t="n">
-        <v>853.0833333333334</v>
+        <v>853.3</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>848</v>
       </c>
       <c r="F118" t="n">
-        <v>241.4021</v>
+        <v>966.5</v>
       </c>
       <c r="G118" t="n">
-        <v>852.8833333333333</v>
+        <v>853.0833333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>848</v>
       </c>
       <c r="C119" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D119" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E119" t="n">
         <v>848</v>
       </c>
       <c r="F119" t="n">
-        <v>16.0266</v>
+        <v>241.4021</v>
       </c>
       <c r="G119" t="n">
-        <v>852.7833333333333</v>
+        <v>852.8833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>848</v>
       </c>
       <c r="C120" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D120" t="n">
+        <v>851</v>
+      </c>
+      <c r="E120" t="n">
         <v>848</v>
       </c>
-      <c r="E120" t="n">
-        <v>846</v>
-      </c>
       <c r="F120" t="n">
-        <v>257.3078</v>
+        <v>16.0266</v>
       </c>
       <c r="G120" t="n">
-        <v>852.5333333333333</v>
+        <v>852.7833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C121" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D121" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E121" t="n">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F121" t="n">
-        <v>785.4837</v>
+        <v>257.3078</v>
       </c>
       <c r="G121" t="n">
-        <v>852.2666666666667</v>
+        <v>852.5333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C122" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D122" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E122" t="n">
         <v>844</v>
       </c>
       <c r="F122" t="n">
-        <v>2317.6813</v>
+        <v>785.4837</v>
       </c>
       <c r="G122" t="n">
-        <v>851.9833333333333</v>
+        <v>852.2666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C123" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D123" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E123" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F123" t="n">
-        <v>103.3134</v>
+        <v>2317.6813</v>
       </c>
       <c r="G123" t="n">
-        <v>851.7333333333333</v>
+        <v>851.9833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C124" t="n">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D124" t="n">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E124" t="n">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="F124" t="n">
-        <v>1470.2318</v>
+        <v>103.3134</v>
       </c>
       <c r="G124" t="n">
-        <v>851.4166666666666</v>
+        <v>851.7333333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C125" t="n">
         <v>843</v>
       </c>
       <c r="D125" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E125" t="n">
         <v>843</v>
       </c>
       <c r="F125" t="n">
-        <v>36.89</v>
+        <v>1470.2318</v>
       </c>
       <c r="G125" t="n">
-        <v>851.1166666666667</v>
+        <v>851.4166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>843</v>
       </c>
       <c r="F126" t="n">
-        <v>686.4924999999999</v>
+        <v>36.89</v>
       </c>
       <c r="G126" t="n">
-        <v>850.8166666666667</v>
+        <v>851.1166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>843</v>
       </c>
       <c r="C127" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D127" t="n">
         <v>843</v>
       </c>
       <c r="E127" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F127" t="n">
-        <v>76.43940000000001</v>
+        <v>686.4924999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>850.5</v>
+        <v>850.8166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C128" t="n">
         <v>841</v>
       </c>
       <c r="D128" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E128" t="n">
         <v>841</v>
       </c>
       <c r="F128" t="n">
-        <v>400</v>
+        <v>76.43940000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>850.2333333333333</v>
+        <v>850.5</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>841</v>
       </c>
       <c r="F129" t="n">
-        <v>43.5531</v>
+        <v>400</v>
       </c>
       <c r="G129" t="n">
-        <v>849.9666666666667</v>
+        <v>850.2333333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C130" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D130" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E130" t="n">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F130" t="n">
-        <v>704.5178</v>
+        <v>43.5531</v>
       </c>
       <c r="G130" t="n">
-        <v>849.6</v>
+        <v>849.9666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +4154,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C131" t="n">
         <v>840</v>
@@ -3774,12 +4166,15 @@
         <v>839</v>
       </c>
       <c r="F131" t="n">
-        <v>2135.5001</v>
+        <v>704.5178</v>
       </c>
       <c r="G131" t="n">
-        <v>849.3</v>
+        <v>849.6</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C132" t="n">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D132" t="n">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E132" t="n">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F132" t="n">
-        <v>169.2908</v>
+        <v>2135.5001</v>
       </c>
       <c r="G132" t="n">
-        <v>849.0833333333334</v>
+        <v>849.3</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C133" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D133" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E133" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F133" t="n">
-        <v>128.4198</v>
+        <v>169.2908</v>
       </c>
       <c r="G133" t="n">
-        <v>848.9166666666666</v>
+        <v>849.0833333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C134" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D134" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E134" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F134" t="n">
-        <v>865.6896</v>
+        <v>128.4198</v>
       </c>
       <c r="G134" t="n">
-        <v>848.7333333333333</v>
+        <v>848.9166666666666</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C135" t="n">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D135" t="n">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E135" t="n">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F135" t="n">
-        <v>400.9759</v>
+        <v>865.6896</v>
       </c>
       <c r="G135" t="n">
-        <v>848.5166666666667</v>
+        <v>848.7333333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C136" t="n">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D136" t="n">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E136" t="n">
         <v>837</v>
       </c>
       <c r="F136" t="n">
-        <v>300.1512</v>
+        <v>400.9759</v>
       </c>
       <c r="G136" t="n">
-        <v>848.2166666666667</v>
+        <v>848.5166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>837</v>
       </c>
       <c r="C137" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D137" t="n">
         <v>837</v>
       </c>
       <c r="E137" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F137" t="n">
-        <v>102.373</v>
+        <v>300.1512</v>
       </c>
       <c r="G137" t="n">
-        <v>847.9333333333333</v>
+        <v>848.2166666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C138" t="n">
         <v>833</v>
       </c>
       <c r="D138" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E138" t="n">
         <v>833</v>
       </c>
       <c r="F138" t="n">
-        <v>33.07</v>
+        <v>102.373</v>
       </c>
       <c r="G138" t="n">
-        <v>847.55</v>
+        <v>847.9333333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C139" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D139" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E139" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F139" t="n">
-        <v>33.3</v>
+        <v>33.07</v>
       </c>
       <c r="G139" t="n">
-        <v>847.2333333333333</v>
+        <v>847.55</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C140" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D140" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E140" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F140" t="n">
-        <v>63.0026</v>
+        <v>33.3</v>
       </c>
       <c r="G140" t="n">
-        <v>846.8833333333333</v>
+        <v>847.2333333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C141" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D141" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E141" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F141" t="n">
-        <v>101.04</v>
+        <v>63.0026</v>
       </c>
       <c r="G141" t="n">
-        <v>846.55</v>
+        <v>846.8833333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C142" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D142" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E142" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>101.04</v>
       </c>
       <c r="G142" t="n">
-        <v>846.1333333333333</v>
+        <v>846.55</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C143" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D143" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E143" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F143" t="n">
-        <v>6.3612</v>
+        <v>600</v>
       </c>
       <c r="G143" t="n">
-        <v>845.7666666666667</v>
+        <v>846.1333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C144" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D144" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E144" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F144" t="n">
-        <v>1.8368</v>
+        <v>6.3612</v>
       </c>
       <c r="G144" t="n">
-        <v>845.4166666666666</v>
+        <v>845.7666666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>834</v>
       </c>
       <c r="F145" t="n">
-        <v>1.3434</v>
+        <v>1.8368</v>
       </c>
       <c r="G145" t="n">
-        <v>845.1333333333333</v>
+        <v>845.4166666666666</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>834</v>
       </c>
       <c r="C146" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D146" t="n">
         <v>834</v>
       </c>
       <c r="E146" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F146" t="n">
-        <v>63.022</v>
+        <v>1.3434</v>
       </c>
       <c r="G146" t="n">
-        <v>844.7666666666667</v>
+        <v>845.1333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>834</v>
+      </c>
+      <c r="C147" t="n">
         <v>833</v>
       </c>
-      <c r="C147" t="n">
-        <v>836</v>
-      </c>
       <c r="D147" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E147" t="n">
         <v>833</v>
       </c>
       <c r="F147" t="n">
-        <v>21.7108</v>
+        <v>63.022</v>
       </c>
       <c r="G147" t="n">
-        <v>844.5</v>
+        <v>844.7666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C148" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D148" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E148" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F148" t="n">
-        <v>52.712</v>
+        <v>21.7108</v>
       </c>
       <c r="G148" t="n">
-        <v>844.3</v>
+        <v>844.5</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>838</v>
       </c>
       <c r="F149" t="n">
-        <v>111.05</v>
+        <v>52.712</v>
       </c>
       <c r="G149" t="n">
-        <v>844.05</v>
+        <v>844.3</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>838</v>
       </c>
       <c r="F150" t="n">
-        <v>2.3159</v>
+        <v>111.05</v>
       </c>
       <c r="G150" t="n">
-        <v>843.8166666666667</v>
+        <v>844.05</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>838</v>
       </c>
       <c r="F151" t="n">
-        <v>217.1941</v>
+        <v>2.3159</v>
       </c>
       <c r="G151" t="n">
-        <v>843.55</v>
+        <v>843.8166666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F152" t="n">
-        <v>3.1357</v>
+        <v>217.1941</v>
       </c>
       <c r="G152" t="n">
-        <v>843.3666666666667</v>
+        <v>843.55</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>839</v>
       </c>
       <c r="F153" t="n">
-        <v>296.8643</v>
+        <v>3.1357</v>
       </c>
       <c r="G153" t="n">
-        <v>843.2666666666667</v>
+        <v>843.3666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F154" t="n">
-        <v>348.5494</v>
+        <v>296.8643</v>
       </c>
       <c r="G154" t="n">
-        <v>843.2</v>
+        <v>843.2666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>348.5494</v>
       </c>
       <c r="G155" t="n">
-        <v>843.1166666666667</v>
+        <v>843.2</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F156" t="n">
-        <v>100.1833</v>
+        <v>20</v>
       </c>
       <c r="G156" t="n">
-        <v>843.0166666666667</v>
+        <v>843.1166666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>843</v>
       </c>
       <c r="C157" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D157" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E157" t="n">
         <v>843</v>
       </c>
       <c r="F157" t="n">
-        <v>1736.357</v>
+        <v>100.1833</v>
       </c>
       <c r="G157" t="n">
-        <v>842.9333333333333</v>
+        <v>843.0166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C158" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D158" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E158" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F158" t="n">
-        <v>8.932700000000001</v>
+        <v>1736.357</v>
       </c>
       <c r="G158" t="n">
-        <v>842.8833333333333</v>
+        <v>842.9333333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>848</v>
       </c>
       <c r="F159" t="n">
-        <v>31.0673</v>
+        <v>8.932700000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>842.85</v>
+        <v>842.8833333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>848</v>
       </c>
       <c r="C160" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D160" t="n">
         <v>848</v>
       </c>
       <c r="E160" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F160" t="n">
-        <v>90.0026</v>
+        <v>31.0673</v>
       </c>
       <c r="G160" t="n">
-        <v>842.8166666666667</v>
+        <v>842.85</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C161" t="n">
         <v>847</v>
       </c>
       <c r="D161" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E161" t="n">
         <v>847</v>
       </c>
       <c r="F161" t="n">
-        <v>38.6765</v>
+        <v>90.0026</v>
       </c>
       <c r="G161" t="n">
-        <v>842.85</v>
+        <v>842.8166666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F162" t="n">
-        <v>247.7959</v>
+        <v>38.6765</v>
       </c>
       <c r="G162" t="n">
         <v>842.85</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F163" t="n">
-        <v>779.1969</v>
+        <v>247.7959</v>
       </c>
       <c r="G163" t="n">
-        <v>842.8666666666667</v>
+        <v>842.85</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C164" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D164" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E164" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F164" t="n">
-        <v>352.0804220398593</v>
+        <v>779.1969</v>
       </c>
       <c r="G164" t="n">
-        <v>843</v>
+        <v>842.8666666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C165" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D165" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E165" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F165" t="n">
-        <v>12</v>
+        <v>352.0804220398593</v>
       </c>
       <c r="G165" t="n">
-        <v>843.0333333333333</v>
+        <v>843</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F166" t="n">
-        <v>537.7658</v>
+        <v>12</v>
       </c>
       <c r="G166" t="n">
         <v>843.0333333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F167" t="n">
-        <v>30.3227</v>
+        <v>537.7658</v>
       </c>
       <c r="G167" t="n">
-        <v>842.9833333333333</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>848</v>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>30.3227</v>
       </c>
       <c r="G168" t="n">
-        <v>843.0333333333333</v>
+        <v>842.9833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>848</v>
       </c>
       <c r="F169" t="n">
-        <v>41.6773</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>842.9833333333333</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>848</v>
       </c>
       <c r="F170" t="n">
-        <v>215.55</v>
+        <v>41.6773</v>
       </c>
       <c r="G170" t="n">
-        <v>842.9166666666666</v>
+        <v>842.9833333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>848</v>
       </c>
       <c r="F171" t="n">
-        <v>40.06</v>
+        <v>215.55</v>
       </c>
       <c r="G171" t="n">
-        <v>842.8333333333334</v>
+        <v>842.9166666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>848</v>
       </c>
       <c r="F172" t="n">
-        <v>207.4375</v>
+        <v>40.06</v>
       </c>
       <c r="G172" t="n">
-        <v>842.75</v>
+        <v>842.8333333333334</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F173" t="n">
-        <v>149.8057</v>
+        <v>207.4375</v>
       </c>
       <c r="G173" t="n">
-        <v>842.7833333333333</v>
+        <v>842.75</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>851</v>
       </c>
       <c r="F174" t="n">
-        <v>82.5018</v>
+        <v>149.8057</v>
       </c>
       <c r="G174" t="n">
         <v>842.7833333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C175" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D175" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E175" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F175" t="n">
-        <v>1115.2551</v>
+        <v>82.5018</v>
       </c>
       <c r="G175" t="n">
-        <v>842.8333333333334</v>
+        <v>842.7833333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C176" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D176" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E176" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F176" t="n">
-        <v>28.5896</v>
+        <v>1115.2551</v>
       </c>
       <c r="G176" t="n">
-        <v>842.9166666666666</v>
+        <v>842.8333333333334</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>855</v>
       </c>
       <c r="F177" t="n">
-        <v>594.4678</v>
+        <v>28.5896</v>
       </c>
       <c r="G177" t="n">
-        <v>843.0333333333333</v>
+        <v>842.9166666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C178" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D178" t="n">
         <v>855</v>
       </c>
       <c r="E178" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F178" t="n">
-        <v>721.054</v>
+        <v>594.4678</v>
       </c>
       <c r="G178" t="n">
-        <v>843.1166666666667</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C179" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D179" t="n">
         <v>855</v>
       </c>
       <c r="E179" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F179" t="n">
-        <v>101.0093</v>
+        <v>721.054</v>
       </c>
       <c r="G179" t="n">
-        <v>843.1833333333333</v>
+        <v>843.1166666666667</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5039,21 +5578,24 @@
         <v>855</v>
       </c>
       <c r="C180" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D180" t="n">
         <v>855</v>
       </c>
       <c r="E180" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F180" t="n">
-        <v>196.3218</v>
+        <v>101.0093</v>
       </c>
       <c r="G180" t="n">
-        <v>843.2666666666667</v>
+        <v>843.1833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>855</v>
       </c>
       <c r="C181" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D181" t="n">
         <v>855</v>
       </c>
       <c r="E181" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F181" t="n">
-        <v>25.5245</v>
+        <v>196.3218</v>
       </c>
       <c r="G181" t="n">
-        <v>843.4333333333333</v>
+        <v>843.2666666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>855</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7331</v>
+        <v>25.5245</v>
       </c>
       <c r="G182" t="n">
-        <v>843.6166666666667</v>
+        <v>843.4333333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F183" t="n">
-        <v>100</v>
+        <v>0.7331</v>
       </c>
       <c r="G183" t="n">
-        <v>843.7833333333333</v>
+        <v>843.6166666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>856</v>
       </c>
       <c r="C184" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D184" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E184" t="n">
         <v>856</v>
       </c>
       <c r="F184" t="n">
-        <v>5062.8573</v>
+        <v>100</v>
       </c>
       <c r="G184" t="n">
-        <v>844.0333333333333</v>
+        <v>843.7833333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C185" t="n">
         <v>858</v>
       </c>
       <c r="D185" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E185" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F185" t="n">
-        <v>125.5249</v>
+        <v>5062.8573</v>
       </c>
       <c r="G185" t="n">
-        <v>844.2833333333333</v>
+        <v>844.0333333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F186" t="n">
-        <v>89.8366</v>
+        <v>125.5249</v>
       </c>
       <c r="G186" t="n">
-        <v>844.5166666666667</v>
+        <v>844.2833333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>857</v>
       </c>
       <c r="F187" t="n">
-        <v>2.1912</v>
+        <v>89.8366</v>
       </c>
       <c r="G187" t="n">
-        <v>844.7833333333333</v>
+        <v>844.5166666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>857</v>
       </c>
       <c r="C188" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D188" t="n">
         <v>857</v>
       </c>
       <c r="E188" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F188" t="n">
-        <v>1176.9107</v>
+        <v>2.1912</v>
       </c>
       <c r="G188" t="n">
-        <v>845</v>
+        <v>844.7833333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C189" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D189" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E189" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F189" t="n">
-        <v>456.7565</v>
+        <v>1176.9107</v>
       </c>
       <c r="G189" t="n">
-        <v>845.25</v>
+        <v>845</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F190" t="n">
-        <v>635.0321</v>
+        <v>456.7565</v>
       </c>
       <c r="G190" t="n">
-        <v>845.5333333333333</v>
+        <v>845.25</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F191" t="n">
-        <v>119.1806</v>
+        <v>635.0321</v>
       </c>
       <c r="G191" t="n">
-        <v>845.8333333333334</v>
+        <v>845.5333333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>858</v>
       </c>
       <c r="F192" t="n">
-        <v>219.9393</v>
+        <v>119.1806</v>
       </c>
       <c r="G192" t="n">
-        <v>846.0833333333334</v>
+        <v>845.8333333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>858</v>
       </c>
       <c r="F193" t="n">
-        <v>37.0518</v>
+        <v>219.9393</v>
       </c>
       <c r="G193" t="n">
-        <v>846.35</v>
+        <v>846.0833333333334</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F194" t="n">
-        <v>46.554</v>
+        <v>37.0518</v>
       </c>
       <c r="G194" t="n">
-        <v>846.65</v>
+        <v>846.35</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>859</v>
       </c>
       <c r="F195" t="n">
-        <v>6.5095</v>
+        <v>46.554</v>
       </c>
       <c r="G195" t="n">
-        <v>846.9833333333333</v>
+        <v>846.65</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>859</v>
       </c>
       <c r="F196" t="n">
-        <v>2.7898</v>
+        <v>6.5095</v>
       </c>
       <c r="G196" t="n">
-        <v>847.35</v>
+        <v>846.9833333333333</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C197" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D197" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E197" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F197" t="n">
-        <v>770.4573</v>
+        <v>2.7898</v>
       </c>
       <c r="G197" t="n">
-        <v>847.8166666666667</v>
+        <v>847.35</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>860</v>
       </c>
       <c r="C198" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D198" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E198" t="n">
         <v>860</v>
       </c>
       <c r="F198" t="n">
-        <v>231.0312</v>
+        <v>770.4573</v>
       </c>
       <c r="G198" t="n">
-        <v>848.2666666666667</v>
+        <v>847.8166666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F199" t="n">
-        <v>1.9458</v>
+        <v>231.0312</v>
       </c>
       <c r="G199" t="n">
-        <v>848.65</v>
+        <v>848.2666666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F200" t="n">
-        <v>36.7224</v>
+        <v>1.9458</v>
       </c>
       <c r="G200" t="n">
-        <v>849.05</v>
+        <v>848.65</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F201" t="n">
-        <v>47.2299</v>
+        <v>36.7224</v>
       </c>
       <c r="G201" t="n">
-        <v>849.45</v>
+        <v>849.05</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F202" t="n">
-        <v>11.7706</v>
+        <v>47.2299</v>
       </c>
       <c r="G202" t="n">
-        <v>849.8333333333334</v>
+        <v>849.45</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F203" t="n">
-        <v>83.5998</v>
+        <v>11.7706</v>
       </c>
       <c r="G203" t="n">
-        <v>850.2166666666667</v>
+        <v>849.8333333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>858</v>
       </c>
       <c r="F204" t="n">
-        <v>653.9586</v>
+        <v>83.5998</v>
       </c>
       <c r="G204" t="n">
-        <v>850.6166666666667</v>
+        <v>850.2166666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>858</v>
       </c>
       <c r="F205" t="n">
-        <v>182.59</v>
+        <v>653.9586</v>
       </c>
       <c r="G205" t="n">
-        <v>851.0166666666667</v>
+        <v>850.6166666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>858</v>
       </c>
       <c r="C206" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D206" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E206" t="n">
         <v>858</v>
       </c>
       <c r="F206" t="n">
-        <v>2376.5</v>
+        <v>182.59</v>
       </c>
       <c r="G206" t="n">
-        <v>851.4666666666667</v>
+        <v>851.0166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>858</v>
+      </c>
+      <c r="C207" t="n">
         <v>860</v>
       </c>
-      <c r="C207" t="n">
-        <v>874</v>
-      </c>
       <c r="D207" t="n">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E207" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F207" t="n">
-        <v>3914.2992</v>
+        <v>2376.5</v>
       </c>
       <c r="G207" t="n">
-        <v>852.1</v>
+        <v>851.4666666666667</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="C208" t="n">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="D208" t="n">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="E208" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="F208" t="n">
-        <v>1308.8069</v>
+        <v>3914.2992</v>
       </c>
       <c r="G208" t="n">
-        <v>853.3166666666667</v>
+        <v>852.1</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,7 +6416,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="C209" t="n">
         <v>911</v>
@@ -5799,15 +6425,18 @@
         <v>911</v>
       </c>
       <c r="E209" t="n">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="F209" t="n">
-        <v>3896.1539</v>
+        <v>1308.8069</v>
       </c>
       <c r="G209" t="n">
-        <v>854.5333333333333</v>
+        <v>853.3166666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>906</v>
+      </c>
+      <c r="C210" t="n">
         <v>911</v>
       </c>
-      <c r="C210" t="n">
-        <v>910</v>
-      </c>
       <c r="D210" t="n">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E210" t="n">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="F210" t="n">
-        <v>5837.0189</v>
+        <v>3896.1539</v>
       </c>
       <c r="G210" t="n">
-        <v>855.7333333333333</v>
+        <v>854.5333333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,25 +6474,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C211" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D211" t="n">
+        <v>921</v>
+      </c>
+      <c r="E211" t="n">
         <v>910</v>
       </c>
-      <c r="E211" t="n">
-        <v>906</v>
-      </c>
       <c r="F211" t="n">
-        <v>534.0507</v>
+        <v>5837.0189</v>
       </c>
       <c r="G211" t="n">
-        <v>856.8666666666667</v>
+        <v>855.7333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5868,25 +6503,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C212" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D212" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="E212" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="F212" t="n">
-        <v>104.0064</v>
+        <v>534.0507</v>
       </c>
       <c r="G212" t="n">
-        <v>857.85</v>
+        <v>856.8666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C213" t="n">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D213" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E213" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F213" t="n">
-        <v>331.603</v>
+        <v>104.0064</v>
       </c>
       <c r="G213" t="n">
-        <v>858.8666666666667</v>
+        <v>857.85</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C214" t="n">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="D214" t="n">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="E214" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F214" t="n">
-        <v>429.5035</v>
+        <v>331.603</v>
       </c>
       <c r="G214" t="n">
-        <v>860.1166666666667</v>
+        <v>858.8666666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>908</v>
+      </c>
+      <c r="C215" t="n">
         <v>916</v>
-      </c>
-      <c r="C215" t="n">
-        <v>912</v>
       </c>
       <c r="D215" t="n">
         <v>917</v>
       </c>
       <c r="E215" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F215" t="n">
-        <v>1058.2229</v>
+        <v>429.5035</v>
       </c>
       <c r="G215" t="n">
-        <v>861.25</v>
+        <v>860.1166666666667</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C216" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D216" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E216" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F216" t="n">
-        <v>509.9998</v>
+        <v>1058.2229</v>
       </c>
       <c r="G216" t="n">
-        <v>862.35</v>
+        <v>861.25</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C217" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D217" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E217" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F217" t="n">
-        <v>512.9772</v>
+        <v>509.9998</v>
       </c>
       <c r="G217" t="n">
-        <v>863.45</v>
+        <v>862.35</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C218" t="n">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="D218" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E218" t="n">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="F218" t="n">
-        <v>264.4999</v>
+        <v>512.9772</v>
       </c>
       <c r="G218" t="n">
-        <v>864.3333333333334</v>
+        <v>863.45</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C219" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D219" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="E219" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F219" t="n">
-        <v>2103.3553</v>
+        <v>264.4999</v>
       </c>
       <c r="G219" t="n">
-        <v>865.2</v>
+        <v>864.3333333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C220" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D220" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E220" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F220" t="n">
-        <v>852.4121</v>
+        <v>2103.3553</v>
       </c>
       <c r="G220" t="n">
-        <v>866.25</v>
+        <v>865.2</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6105,21 +6767,24 @@
         <v>909</v>
       </c>
       <c r="C221" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D221" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E221" t="n">
         <v>909</v>
       </c>
       <c r="F221" t="n">
-        <v>215.6743</v>
+        <v>852.4121</v>
       </c>
       <c r="G221" t="n">
-        <v>867.3166666666667</v>
+        <v>866.25</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C222" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D222" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E222" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F222" t="n">
-        <v>1356.7933</v>
+        <v>215.6743</v>
       </c>
       <c r="G222" t="n">
-        <v>868.35</v>
+        <v>867.3166666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6157,21 +6825,24 @@
         <v>910</v>
       </c>
       <c r="C223" t="n">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D223" t="n">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E223" t="n">
         <v>910</v>
       </c>
       <c r="F223" t="n">
-        <v>38.433</v>
+        <v>1356.7933</v>
       </c>
       <c r="G223" t="n">
-        <v>869.5</v>
+        <v>868.35</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C224" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D224" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E224" t="n">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F224" t="n">
-        <v>1608.4435</v>
+        <v>38.433</v>
       </c>
       <c r="G224" t="n">
-        <v>870.5666666666667</v>
+        <v>869.5</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C225" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D225" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E225" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F225" t="n">
-        <v>4336.2177</v>
+        <v>1608.4435</v>
       </c>
       <c r="G225" t="n">
-        <v>871.6833333333333</v>
+        <v>870.5666666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C226" t="n">
         <v>918</v>
       </c>
       <c r="D226" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E226" t="n">
         <v>918</v>
       </c>
       <c r="F226" t="n">
-        <v>1297.65</v>
+        <v>4336.2177</v>
       </c>
       <c r="G226" t="n">
-        <v>872.8166666666667</v>
+        <v>871.6833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>922</v>
+      </c>
+      <c r="C227" t="n">
         <v>918</v>
       </c>
-      <c r="C227" t="n">
-        <v>914</v>
-      </c>
       <c r="D227" t="n">
+        <v>922</v>
+      </c>
+      <c r="E227" t="n">
         <v>918</v>
       </c>
-      <c r="E227" t="n">
-        <v>914</v>
-      </c>
       <c r="F227" t="n">
-        <v>1514.0809</v>
+        <v>1297.65</v>
       </c>
       <c r="G227" t="n">
-        <v>873.9166666666666</v>
+        <v>872.8166666666667</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C228" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D228" t="n">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="E228" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F228" t="n">
-        <v>2.5577</v>
+        <v>1514.0809</v>
       </c>
       <c r="G228" t="n">
-        <v>874.9333333333333</v>
+        <v>873.9166666666666</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6319,15 +7005,18 @@
         <v>909</v>
       </c>
       <c r="E229" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F229" t="n">
-        <v>280.1084</v>
+        <v>2.5577</v>
       </c>
       <c r="G229" t="n">
-        <v>875.95</v>
+        <v>874.9333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C230" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D230" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E230" t="n">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F230" t="n">
-        <v>124.5426</v>
+        <v>280.1084</v>
       </c>
       <c r="G230" t="n">
-        <v>877.0666666666667</v>
+        <v>875.95</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>910</v>
+      </c>
+      <c r="C231" t="n">
         <v>915</v>
       </c>
-      <c r="C231" t="n">
-        <v>916</v>
-      </c>
       <c r="D231" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E231" t="n">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>124.5426</v>
       </c>
       <c r="G231" t="n">
-        <v>878.2</v>
+        <v>877.0666666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C232" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D232" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E232" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F232" t="n">
-        <v>22.9802</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="n">
-        <v>879.2833333333333</v>
+        <v>878.2</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C233" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D233" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E233" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F233" t="n">
-        <v>249.0372</v>
+        <v>22.9802</v>
       </c>
       <c r="G233" t="n">
-        <v>880.25</v>
+        <v>879.2833333333333</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>910</v>
+      </c>
+      <c r="C234" t="n">
         <v>909</v>
       </c>
-      <c r="C234" t="n">
-        <v>913</v>
-      </c>
       <c r="D234" t="n">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E234" t="n">
         <v>909</v>
       </c>
       <c r="F234" t="n">
-        <v>529.8261</v>
+        <v>249.0372</v>
       </c>
       <c r="G234" t="n">
-        <v>881.2833333333333</v>
+        <v>880.25</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C235" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D235" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E235" t="n">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F235" t="n">
-        <v>30</v>
+        <v>529.8261</v>
       </c>
       <c r="G235" t="n">
-        <v>882.3666666666667</v>
+        <v>881.2833333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G236" t="n">
-        <v>883.4166666666666</v>
+        <v>882.3666666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C237" t="n">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="D237" t="n">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E237" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F237" t="n">
-        <v>643.9487</v>
+        <v>220</v>
       </c>
       <c r="G237" t="n">
-        <v>884.5833333333334</v>
+        <v>883.4166666666666</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C238" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="D238" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E238" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F238" t="n">
-        <v>4698.3714</v>
+        <v>643.9487</v>
       </c>
       <c r="G238" t="n">
-        <v>885.6833333333333</v>
+        <v>884.5833333333334</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C239" t="n">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D239" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E239" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F239" t="n">
-        <v>894.1355</v>
+        <v>4698.3714</v>
       </c>
       <c r="G239" t="n">
-        <v>886.8</v>
+        <v>885.6833333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6599,21 +7318,24 @@
         <v>920</v>
       </c>
       <c r="C240" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D240" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E240" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F240" t="n">
-        <v>333.9608</v>
+        <v>894.1355</v>
       </c>
       <c r="G240" t="n">
-        <v>888</v>
+        <v>886.8</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C241" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D241" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E241" t="n">
         <v>919</v>
       </c>
       <c r="F241" t="n">
-        <v>833.3777</v>
+        <v>333.9608</v>
       </c>
       <c r="G241" t="n">
-        <v>889.0666666666667</v>
+        <v>888</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="F242" t="n">
-        <v>380</v>
+        <v>833.3777</v>
       </c>
       <c r="G242" t="n">
-        <v>890.05</v>
+        <v>889.0666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F243" t="n">
-        <v>4.9349</v>
+        <v>380</v>
       </c>
       <c r="G243" t="n">
-        <v>891.0333333333333</v>
+        <v>890.05</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F244" t="n">
-        <v>3665.8457</v>
+        <v>4.9349</v>
       </c>
       <c r="G244" t="n">
-        <v>892</v>
+        <v>891.0333333333333</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F245" t="n">
-        <v>21.5372</v>
+        <v>3665.8457</v>
       </c>
       <c r="G245" t="n">
-        <v>892.9833333333333</v>
+        <v>892</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C246" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D246" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E246" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F246" t="n">
-        <v>4194.7218</v>
+        <v>21.5372</v>
       </c>
       <c r="G246" t="n">
-        <v>893.95</v>
+        <v>892.9833333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C247" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D247" t="n">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="E247" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F247" t="n">
-        <v>124.9</v>
+        <v>4194.7218</v>
       </c>
       <c r="G247" t="n">
-        <v>894.85</v>
+        <v>893.95</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F248" t="n">
-        <v>14.2117</v>
+        <v>124.9</v>
       </c>
       <c r="G248" t="n">
-        <v>895.7666666666667</v>
+        <v>894.85</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>909</v>
       </c>
       <c r="C249" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D249" t="n">
         <v>909</v>
       </c>
       <c r="E249" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F249" t="n">
-        <v>1458.9248</v>
+        <v>14.2117</v>
       </c>
       <c r="G249" t="n">
-        <v>896.6166666666667</v>
+        <v>895.7666666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
+        <v>909</v>
+      </c>
+      <c r="C250" t="n">
         <v>907</v>
       </c>
-      <c r="C250" t="n">
-        <v>912</v>
-      </c>
       <c r="D250" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E250" t="n">
         <v>907</v>
       </c>
       <c r="F250" t="n">
-        <v>6167.1967</v>
+        <v>1458.9248</v>
       </c>
       <c r="G250" t="n">
-        <v>897.5333333333333</v>
+        <v>896.6166666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C251" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D251" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E251" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F251" t="n">
-        <v>118</v>
+        <v>6167.1967</v>
       </c>
       <c r="G251" t="n">
-        <v>898.4166666666666</v>
+        <v>897.5333333333333</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6911,21 +7666,24 @@
         <v>911</v>
       </c>
       <c r="C252" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D252" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E252" t="n">
         <v>911</v>
       </c>
       <c r="F252" t="n">
-        <v>422.5</v>
+        <v>118</v>
       </c>
       <c r="G252" t="n">
-        <v>899.3166666666667</v>
+        <v>898.4166666666666</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6946,12 +7704,15 @@
         <v>911</v>
       </c>
       <c r="F253" t="n">
-        <v>134.9371</v>
+        <v>422.5</v>
       </c>
       <c r="G253" t="n">
-        <v>900.2166666666667</v>
+        <v>899.3166666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C254" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D254" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E254" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F254" t="n">
-        <v>971.6893</v>
+        <v>134.9371</v>
       </c>
       <c r="G254" t="n">
-        <v>901.1166666666667</v>
+        <v>900.2166666666667</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C255" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="D255" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="E255" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="F255" t="n">
-        <v>1097.25</v>
+        <v>971.6893</v>
       </c>
       <c r="G255" t="n">
-        <v>901.9333333333333</v>
+        <v>901.1166666666667</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,544 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C256" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D256" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E256" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F256" t="n">
-        <v>334.3888</v>
+        <v>1097.25</v>
       </c>
       <c r="G256" t="n">
-        <v>902.7333333333333</v>
+        <v>901.9333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>912</v>
-      </c>
-      <c r="C257" t="n">
-        <v>912</v>
-      </c>
-      <c r="D257" t="n">
-        <v>912</v>
-      </c>
-      <c r="E257" t="n">
-        <v>912</v>
-      </c>
-      <c r="F257" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="G257" t="n">
-        <v>903.5833333333334</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>911</v>
-      </c>
-      <c r="C258" t="n">
-        <v>913</v>
-      </c>
-      <c r="D258" t="n">
-        <v>913</v>
-      </c>
-      <c r="E258" t="n">
-        <v>908</v>
-      </c>
-      <c r="F258" t="n">
-        <v>705.6678000000001</v>
-      </c>
-      <c r="G258" t="n">
-        <v>904.4666666666667</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>913</v>
-      </c>
-      <c r="C259" t="n">
-        <v>909</v>
-      </c>
-      <c r="D259" t="n">
-        <v>913</v>
-      </c>
-      <c r="E259" t="n">
-        <v>909</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2.397</v>
-      </c>
-      <c r="G259" t="n">
-        <v>905.3</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>908</v>
-      </c>
-      <c r="C260" t="n">
-        <v>912</v>
-      </c>
-      <c r="D260" t="n">
-        <v>912</v>
-      </c>
-      <c r="E260" t="n">
-        <v>908</v>
-      </c>
-      <c r="F260" t="n">
-        <v>69.7492</v>
-      </c>
-      <c r="G260" t="n">
-        <v>906.2</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>912</v>
-      </c>
-      <c r="C261" t="n">
-        <v>913</v>
-      </c>
-      <c r="D261" t="n">
-        <v>913</v>
-      </c>
-      <c r="E261" t="n">
-        <v>912</v>
-      </c>
-      <c r="F261" t="n">
-        <v>173.9691</v>
-      </c>
-      <c r="G261" t="n">
-        <v>907.1</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>913</v>
-      </c>
-      <c r="C262" t="n">
-        <v>913</v>
-      </c>
-      <c r="D262" t="n">
-        <v>913</v>
-      </c>
-      <c r="E262" t="n">
-        <v>913</v>
-      </c>
-      <c r="F262" t="n">
-        <v>703.4358999999999</v>
-      </c>
-      <c r="G262" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>912</v>
-      </c>
-      <c r="C263" t="n">
-        <v>912</v>
-      </c>
-      <c r="D263" t="n">
-        <v>912</v>
-      </c>
-      <c r="E263" t="n">
-        <v>912</v>
-      </c>
-      <c r="F263" t="n">
-        <v>395</v>
-      </c>
-      <c r="G263" t="n">
-        <v>908.95</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>912</v>
-      </c>
-      <c r="C264" t="n">
-        <v>912</v>
-      </c>
-      <c r="D264" t="n">
-        <v>912</v>
-      </c>
-      <c r="E264" t="n">
-        <v>912</v>
-      </c>
-      <c r="F264" t="n">
-        <v>300</v>
-      </c>
-      <c r="G264" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>912</v>
-      </c>
-      <c r="C265" t="n">
-        <v>908</v>
-      </c>
-      <c r="D265" t="n">
-        <v>912</v>
-      </c>
-      <c r="E265" t="n">
-        <v>908</v>
-      </c>
-      <c r="F265" t="n">
-        <v>500.9002</v>
-      </c>
-      <c r="G265" t="n">
-        <v>910.6833333333333</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>910</v>
-      </c>
-      <c r="C266" t="n">
-        <v>912</v>
-      </c>
-      <c r="D266" t="n">
-        <v>912</v>
-      </c>
-      <c r="E266" t="n">
-        <v>910</v>
-      </c>
-      <c r="F266" t="n">
-        <v>242.2733</v>
-      </c>
-      <c r="G266" t="n">
-        <v>911.55</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>908</v>
-      </c>
-      <c r="C267" t="n">
-        <v>908</v>
-      </c>
-      <c r="D267" t="n">
-        <v>908</v>
-      </c>
-      <c r="E267" t="n">
-        <v>907</v>
-      </c>
-      <c r="F267" t="n">
-        <v>460.9437</v>
-      </c>
-      <c r="G267" t="n">
-        <v>912.1166666666667</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>910</v>
-      </c>
-      <c r="C268" t="n">
-        <v>910</v>
-      </c>
-      <c r="D268" t="n">
-        <v>910</v>
-      </c>
-      <c r="E268" t="n">
-        <v>910</v>
-      </c>
-      <c r="F268" t="n">
-        <v>13.4069</v>
-      </c>
-      <c r="G268" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>908</v>
-      </c>
-      <c r="C269" t="n">
-        <v>905</v>
-      </c>
-      <c r="D269" t="n">
-        <v>908</v>
-      </c>
-      <c r="E269" t="n">
-        <v>905</v>
-      </c>
-      <c r="F269" t="n">
-        <v>210.6805</v>
-      </c>
-      <c r="G269" t="n">
-        <v>912</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>908</v>
-      </c>
-      <c r="C270" t="n">
-        <v>908</v>
-      </c>
-      <c r="D270" t="n">
-        <v>908</v>
-      </c>
-      <c r="E270" t="n">
-        <v>908</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1</v>
-      </c>
-      <c r="G270" t="n">
-        <v>911.9666666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>906</v>
-      </c>
-      <c r="C271" t="n">
-        <v>905</v>
-      </c>
-      <c r="D271" t="n">
-        <v>906</v>
-      </c>
-      <c r="E271" t="n">
-        <v>905</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1152.1454</v>
-      </c>
-      <c r="G271" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>905</v>
-      </c>
-      <c r="C272" t="n">
-        <v>905</v>
-      </c>
-      <c r="D272" t="n">
-        <v>905</v>
-      </c>
-      <c r="E272" t="n">
-        <v>905</v>
-      </c>
-      <c r="F272" t="n">
-        <v>48.7026</v>
-      </c>
-      <c r="G272" t="n">
-        <v>912.0666666666667</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>901</v>
-      </c>
-      <c r="C273" t="n">
-        <v>901</v>
-      </c>
-      <c r="D273" t="n">
-        <v>901</v>
-      </c>
-      <c r="E273" t="n">
-        <v>901</v>
-      </c>
-      <c r="F273" t="n">
-        <v>10.6538</v>
-      </c>
-      <c r="G273" t="n">
-        <v>912.0833333333334</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>906</v>
-      </c>
-      <c r="C274" t="n">
-        <v>908</v>
-      </c>
-      <c r="D274" t="n">
-        <v>908</v>
-      </c>
-      <c r="E274" t="n">
-        <v>906</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1662.974</v>
-      </c>
-      <c r="G274" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>908</v>
-      </c>
-      <c r="C275" t="n">
-        <v>911</v>
-      </c>
-      <c r="D275" t="n">
-        <v>911</v>
-      </c>
-      <c r="E275" t="n">
-        <v>908</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2368.180751152579</v>
-      </c>
-      <c r="G275" t="n">
-        <v>911.9333333333333</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>906</v>
-      </c>
-      <c r="C276" t="n">
-        <v>904</v>
-      </c>
-      <c r="D276" t="n">
-        <v>906</v>
-      </c>
-      <c r="E276" t="n">
-        <v>904</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1212.591</v>
-      </c>
-      <c r="G276" t="n">
-        <v>911.85</v>
-      </c>
-      <c r="H276" t="n">
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
